--- a/dit_factors/full_dit_info.xlsx
+++ b/dit_factors/full_dit_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="147">
   <si>
     <t xml:space="preserve">ΗΜΕΡΑ</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">10:11-12:00</t>
+    <t xml:space="preserve">11:00-12:00</t>
   </si>
   <si>
     <t xml:space="preserve">ΓΡΑΜΜΙΚΗ ΑΛΓΕΒΡΑ</t>
@@ -127,9 +127,6 @@
     <t xml:space="preserve">09:00-11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">11:00-12:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">ΦΡΟΝΤΙΣΤΗΡΙΟ</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
     <t xml:space="preserve">ΜΑΝΤΑΚΑΣ</t>
   </si>
   <si>
+    <t xml:space="preserve">16:00 - 17:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">ΑΣΚ ΠΡΑΞΗΣ</t>
   </si>
   <si>
@@ -340,18 +340,12 @@
     <t xml:space="preserve">ΑΛΓΟΡΙΘΜΟΙ ΚΑΙ ΠΟΛΥΠΛΟΚΟΤΗΤΑ</t>
   </si>
   <si>
-    <t xml:space="preserve">ΦΡΟΝΙΣΤΗΡΙΟ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ΑΜΦ Γ</t>
   </si>
   <si>
     <t xml:space="preserve">ΔΗΜΗΤΣΑΣ</t>
   </si>
   <si>
-    <t xml:space="preserve">16:00 - 17:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">ΣΤΥΛΙΟΣ</t>
   </si>
   <si>
@@ -410,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">ΤΕΧΝΟΛΟΓΙΕΣ ΕΦΑΡΜΟΓΩΝ ΔΙΑΔΙΚΤΥΟΥ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00 - 10:00</t>
   </si>
   <si>
     <t xml:space="preserve">ΡΟΜΠΟΤΙΚΗ</t>
@@ -539,13 +536,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -565,13 +566,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
+      <selection pane="topLeft" activeCell="R95" activeCellId="0" sqref="R95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -854,13 +855,13 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
@@ -877,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>29</v>
@@ -889,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -897,22 +898,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -920,7 +921,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -943,7 +944,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -966,10 +967,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -987,12 +988,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -1001,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1012,10 +1013,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -1027,7 +1028,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1035,10 +1036,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
@@ -1058,7 +1059,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -1070,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1081,7 +1082,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -1096,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
@@ -1127,16 +1128,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
@@ -1153,10 +1154,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -1168,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,10 +1177,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -1188,10 +1189,10 @@
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -1211,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,22 +1223,22 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,22 +1246,22 @@
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,22 +1269,22 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,10 +1292,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -1303,10 +1304,10 @@
         <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,10 +1315,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -1326,10 +1327,10 @@
         <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,10 +1361,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
@@ -1375,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,10 +1384,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
@@ -1398,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,10 +1407,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
@@ -1421,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,22 +1430,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,22 +1453,22 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,10 +1476,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
@@ -1487,67 +1488,67 @@
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>10</v>
@@ -1556,21 +1557,21 @@
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -1579,44 +1580,44 @@
         <v>17</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -1625,33 +1626,33 @@
         <v>17</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,10 +1660,10 @@
         <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>10</v>
@@ -1674,7 +1675,7 @@
         <v>32</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,10 +1683,10 @@
         <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
@@ -1697,7 +1698,7 @@
         <v>32</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,22 +1706,22 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,22 +1729,22 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,22 +1752,22 @@
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,22 +1775,22 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,10 +1798,10 @@
         <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
@@ -1809,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,10 +1821,10 @@
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
@@ -1832,10 +1833,10 @@
         <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,22 +1844,22 @@
         <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,22 +1867,22 @@
         <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,22 +1890,22 @@
         <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,22 +1913,22 @@
         <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,22 +1936,22 @@
         <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,22 +1959,22 @@
         <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,22 +1982,22 @@
         <v>33</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,22 +2005,22 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,10 +2028,10 @@
         <v>33</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>100</v>
@@ -2039,217 +2040,217 @@
         <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,22 +2258,22 @@
         <v>25</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,22 +2281,22 @@
         <v>25</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,45 +2304,45 @@
         <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,114 +2350,114 @@
         <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,22 +2465,22 @@
         <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,45 +2488,45 @@
         <v>7</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,22 +2534,22 @@
         <v>25</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,22 +2557,22 @@
         <v>25</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,91 +2580,91 @@
         <v>33</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,22 +2672,22 @@
         <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,22 +2695,22 @@
         <v>25</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,19 +2721,19 @@
         <v>104</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,22 +2741,22 @@
         <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,114 +2764,114 @@
         <v>33</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,45 +2879,45 @@
         <v>7</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,22 +2925,22 @@
         <v>7</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G103" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,22 +2948,22 @@
         <v>7</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,22 +2971,22 @@
         <v>7</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,45 +2994,45 @@
         <v>7</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,22 +3040,22 @@
         <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,45 +3063,45 @@
         <v>25</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,22 +3109,22 @@
         <v>33</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,22 +3132,22 @@
         <v>33</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,22 +3155,22 @@
         <v>33</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,22 +3178,22 @@
         <v>33</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,22 +3201,22 @@
         <v>33</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,22 +3224,22 @@
         <v>33</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,298 +3247,321 @@
         <v>33</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G127" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>113</v>
+      <c r="E130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/dit_factors/full_dit_info.xlsx
+++ b/dit_factors/full_dit_info.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">ΑΡΤΖΜΑΝΤ</t>
   </si>
   <si>
-    <t xml:space="preserve">17:00-18:00</t>
+    <t xml:space="preserve">18:00-19:00</t>
   </si>
   <si>
     <t xml:space="preserve">12:00 - 15:00 </t>
@@ -568,11 +568,11 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R95" activeCellId="0" sqref="R95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
